--- a/NOT-output.xlsx
+++ b/NOT-output.xlsx
@@ -26350,16 +26350,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>141287</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136527</xdr:rowOff>
+      <xdr:rowOff>131764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>307973</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493711</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>122238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26383,13 +26383,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>282576</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>58738</xdr:rowOff>
+      <xdr:rowOff>73026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26679,7 +26679,7 @@
   <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
